--- a/Documents/SWQ/SRATS_kickoff.xlsx
+++ b/Documents/SWQ/SRATS_kickoff.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8090" tabRatio="837" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8088" tabRatio="837" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="sample_srats (graph)" sheetId="3" r:id="rId1"/>
@@ -19,9 +19,14 @@
     <sheet name="cummulative_SRATS (graph)" sheetId="5" r:id="rId5"/>
     <sheet name="cummulative_SRATS" sheetId="4" r:id="rId6"/>
     <sheet name="astah_test (graph)" sheetId="13" r:id="rId7"/>
-    <sheet name="astah_test" sheetId="12" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId9"/>
-    <sheet name="Sheet2" sheetId="11" r:id="rId10"/>
+    <sheet name="Sheet6" sheetId="16" r:id="rId8"/>
+    <sheet name="atah optimal release time" sheetId="15" r:id="rId9"/>
+    <sheet name="OptimalReleaseTime (graph)" sheetId="18" r:id="rId10"/>
+    <sheet name="OptimalReleaseTime" sheetId="17" r:id="rId11"/>
+    <sheet name="Sheet3" sheetId="14" r:id="rId12"/>
+    <sheet name="astah_test" sheetId="12" r:id="rId13"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId14"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="33">
   <si>
     <t>Total Experienced Failures</t>
   </si>
@@ -106,6 +111,81 @@
   <si>
     <t>Max Iteration</t>
   </si>
+  <si>
+    <t>時間(日)</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バグ件数</t>
+    <rPh sb="2" eb="4">
+      <t>ケンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストでの修正コスト(USドル)</t>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1日あたりのテストコスト</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社外で出た場合の修正コスト(USドル)</t>
+    <rPh sb="0" eb="2">
+      <t>シャガイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pro1回目</t>
+    <rPh sb="4" eb="6">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pro2回目</t>
+    <rPh sb="4" eb="6">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pro3回目</t>
+    <rPh sb="4" eb="6">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リリース後</t>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -136,12 +216,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -150,8 +245,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -845,11 +943,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="402925608"/>
-        <c:axId val="402918552"/>
+        <c:axId val="348931784"/>
+        <c:axId val="348924336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="402925608"/>
+        <c:axId val="348931784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="30"/>
@@ -880,12 +978,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="402918552"/>
+        <c:crossAx val="348924336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="402918552"/>
+        <c:axId val="348924336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -916,7 +1014,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="402925608"/>
+        <c:crossAx val="348931784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1612,11 +1710,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="409207344"/>
-        <c:axId val="409213616"/>
+        <c:axId val="396133872"/>
+        <c:axId val="396134264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="409207344"/>
+        <c:axId val="396133872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="18"/>
@@ -1648,12 +1746,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="409213616"/>
+        <c:crossAx val="396134264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="409213616"/>
+        <c:axId val="396134264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1685,7 +1783,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="409207344"/>
+        <c:crossAx val="396133872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2376,11 +2474,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="409210480"/>
-        <c:axId val="409207736"/>
+        <c:axId val="396131520"/>
+        <c:axId val="396350216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="409210480"/>
+        <c:axId val="396131520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2412,12 +2510,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="409207736"/>
+        <c:crossAx val="396350216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="409207736"/>
+        <c:axId val="396350216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2448,7 +2546,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="409210480"/>
+        <c:crossAx val="396131520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3280,11 +3378,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="409209696"/>
-        <c:axId val="409206952"/>
+        <c:axId val="396352568"/>
+        <c:axId val="396350608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="409209696"/>
+        <c:axId val="396352568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3315,12 +3413,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="409206952"/>
+        <c:crossAx val="396350608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="409206952"/>
+        <c:axId val="396350608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3351,7 +3449,2557 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="409209696"/>
+        <c:crossAx val="396352568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Exponential Model</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'OptimalReleaseTime (graph)'!$G$1:$G$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.185000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.370000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.555000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.740000000000009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.925000000000011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.110000000000014</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.295000000000016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.480000000000018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.66500000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.850000000000023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39.035000000000025</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39.220000000000027</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39.40500000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.590000000000032</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39.775000000000034</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39.960000000000036</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40.145000000000039</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40.330000000000041</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40.515000000000043</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40.700000000000045</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40.885000000000048</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41.07000000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41.255000000000052</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41.440000000000055</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41.625000000000057</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41.810000000000059</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41.995000000000061</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42.180000000000064</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42.365000000000066</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42.550000000000068</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42.73500000000007</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42.920000000000073</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43.105000000000075</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43.290000000000077</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43.47500000000008</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43.660000000000082</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43.845000000000084</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44.030000000000086</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44.215000000000089</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44.400000000000091</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44.585000000000093</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44.770000000000095</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44.955000000000098</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45.325000000000102</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45.510000000000105</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45.695000000000107</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45.880000000000109</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>46.065000000000111</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>46.250000000000114</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>46.435000000000116</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>46.620000000000118</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>46.805000000000121</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>46.990000000000123</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>47.175000000000125</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>47.360000000000127</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>47.54500000000013</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>47.730000000000132</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>47.915000000000134</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>48.100000000000136</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>48.285000000000139</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>48.470000000000141</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>48.655000000000143</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>48.840000000000146</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>49.025000000000148</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>49.21000000000015</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>49.395000000000152</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>49.580000000000155</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>49.765000000000157</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>49.950000000000159</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>50.135000000000161</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>50.320000000000164</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>50.505000000000166</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>50.690000000000168</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>50.875000000000171</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>51.060000000000173</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>51.245000000000175</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>51.430000000000177</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>51.61500000000018</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>51.800000000000182</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>51.985000000000184</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>52.170000000000186</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>52.355000000000189</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>52.540000000000191</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>52.725000000000193</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>52.910000000000196</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>53.095000000000198</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>53.2800000000002</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>53.465000000000202</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>53.650000000000205</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>53.835000000000207</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>54.020000000000209</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>54.205000000000211</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>54.390000000000214</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>54.575000000000216</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>54.760000000000218</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>54.945000000000221</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>55.130000000000223</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>55.315000000000225</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>55.500000000000227</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'OptimalReleaseTime (graph)'!$H$1:$H$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97279277422741883</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94675690401479273</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92183070112456633</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89795626604419443</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87507922524233583</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85314848857251446</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83211602514063421</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.81193665610458754</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79256786301094639</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.77396961039793133</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75610418150582814</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.73893602603775232</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.72243161900557151</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7065593297793229</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.69128930053425963</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.67659333335830818</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.66244478534534357</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.64881847105636725</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.63569057178249022</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.62303855109057416</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.61084107617532168</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.59907794458058461</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.58773001588839546</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.57677914800663366</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.56620813771605649</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.5560006651643612</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.5461412420199796</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.53661516302078482</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.52740846067375469</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.51850786288065209</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.50990075328214335</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.5015751341288156</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.49351959150214997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.4857232627219647</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.47817580578925711</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.47086737072456569</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.46378857267258289</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.45693046665320952</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4502845238481118</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.44384260931996861</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.43759696106910656</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43154017033902831</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.4256651630888485</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.41996518255635229</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.41443377284095578</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.40906476344072212</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.40385225468233155</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.3987906039870377</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.39387441291974773</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.3890985149718344</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.38445796403186566</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.37994802350139106</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.37556415601596843</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.37130201373418004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.36715742915998539</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.36312640646599958</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.35920511328747778</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.35538987295871211</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.35167715716551134</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.34806357898901424</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.34454588631782262</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.34112095560678796</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.33778578596233516</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.3345374935352935</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.33137330620360944</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.32829055852826078</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.32528668696685142</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.32235922533026484</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.31950580046868987</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.31672412817417228</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.31401200928763495</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.31136732599903078</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.3087880383299853</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.30627218078896495</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.30381785918950804</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.30142324762276862</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.29908658557596685</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.29680617518900893</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.29458037864184261</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.29240761566567841</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.2902863611714871</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.28821514298967793</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.2861925397151171</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.28421717865203067</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.28228773385366146</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.28040292425177404</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.27856151187145239</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.27676230012684622</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.27500413219375797</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.27328588945525351</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.27160649001658943</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.2699648872860374</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.26836006861835621</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.2667910540177964</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.26525689489772936</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.2637566728941716</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.26228949873053936</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.26085451113119745</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.2594508757814612</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.25807778433180784</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="573025576"/>
+        <c:axId val="573036944"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="573025576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="37"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="573036944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="573036944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Software Reliability</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="573025576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Exponential Model</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'OptimalReleaseTime (graph)'!$J$1:$J$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.55500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8850000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.1049999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.6599999999999993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.214999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.7699999999999987</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.3249999999999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.4349999999999987</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.9899999999999984</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.544999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.654999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.209999999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.764999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.319999999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13.874999999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14.429999999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14.984999999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.539999999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16.094999999999995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16.649999999999995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17.204999999999995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.759999999999994</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>18.314999999999994</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18.869999999999994</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19.424999999999994</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19.979999999999993</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20.534999999999993</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>21.089999999999993</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>21.644999999999992</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>22.199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>22.754999999999992</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>23.309999999999992</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>23.864999999999991</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>24.419999999999991</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>24.974999999999991</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>25.52999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>26.08499999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>26.63999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>27.19499999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>27.749999999999989</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>28.304999999999989</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>28.859999999999989</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>29.414999999999988</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>29.969999999999988</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>30.524999999999988</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>31.079999999999988</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>31.634999999999987</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>32.189999999999991</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>32.74499999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>33.29999999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>33.85499999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>34.409999999999989</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>34.964999999999989</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>35.519999999999989</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>36.074999999999989</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>36.629999999999988</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>37.184999999999988</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>37.739999999999988</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>38.294999999999987</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>38.849999999999987</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>39.404999999999987</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>39.959999999999987</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>40.514999999999986</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>41.069999999999986</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>41.624999999999986</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42.179999999999986</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42.734999999999985</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43.289999999999985</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>43.844999999999985</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44.399999999999984</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44.954999999999984</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45.509999999999984</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>46.064999999999984</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>46.619999999999983</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>47.174999999999983</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>47.729999999999983</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>48.284999999999982</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>48.839999999999982</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>49.394999999999982</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>49.949999999999982</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>50.504999999999981</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>51.059999999999981</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>51.614999999999981</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>52.16999999999998</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>52.72499999999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>53.27999999999998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>53.83499999999998</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>54.389999999999979</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>54.944999999999979</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>55.499999999999979</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'OptimalReleaseTime (graph)'!$K$1:$K$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>3.9957343463523789</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8010514718082016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6158540681075455</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4396799777168643</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2720895606549094</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1126645973773046</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9610072451155114</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8167390450657606</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6794999779503956</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.548947565594792</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4247560162778612</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3066154117233575</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1942309337031558</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0873221283224757</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.98562220615111</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.888877376454126</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7968462138606347</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7092990558901482</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.6260174298330701</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5467935075550998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.4714295868650276</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.3997375981516789</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3315386350588254</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2666625080268756</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2049473195872029</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1462390603492774</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0903912246723819</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0372644450628339</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.98672614438434925</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.93865020501365504</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.8929166541157183</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.84941136425321595</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.80802576858310671</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.76865658992959307</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.73120558305737049</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.69557928950201664</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.66168880434569777</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.62944955435618899</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.59878108693555554</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.56960686935181704</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.54185409775258575</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.5154535154840687</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.49033924026205655</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.46644859976360387</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44372197522912166</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.4221026526845974</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.40153668141266413</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.38197273931933939</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.36336200486045633</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.34565803520818283</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.32881665035359342</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.31279582285607399</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.2975555729644308</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.28305786884798034</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.26926653168864711</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.25614714539722838</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.24366697072852428</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.23179486358100931</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.22050119727716169</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.20975778863050365</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.19953782761485328</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.18981581046027879</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.18056747600879702</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.17176974517099239</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.16340066333247202</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.15543934556643219</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.14786592451561489</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.14066150081359591</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.13380809592167969</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.12728860726370719</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.12108676554681592</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.11518709416164719</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.10957487056068341</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.10423608951833667</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9.9157428181103596E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9.4326212820571048E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.9730387206303552E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.5358482519688889E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8.1199588733661274E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.7243327386881513E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.347982568443151E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.9899691860392618E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.6493991740824779E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.3254226448660661E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.0172311194876288E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.7240555103013131E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.4451642016703529E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.1798612242304351E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.9274845181078948E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.6874042807585593E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.459021395304269E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.2417659354451111E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.0350957432162722E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.8384950760404241E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.6514733196993401E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.4735637640129415E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.3043224381705795E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.1433270028080863E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.9901756960657735E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.8444863309973357E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="347533072"/>
+        <c:axId val="573039688"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="347533072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="573039688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="573039688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Software Failure Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="347533072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Faults</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'OptimalReleaseTime (graph)'!$A$1:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'OptimalReleaseTime (graph)'!$B$1:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Exponential Model</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'OptimalReleaseTime (graph)'!$D$1:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.665</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8850000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.1049999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.6599999999999993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.214999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.7699999999999987</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.3249999999999993</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.4349999999999987</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.9899999999999984</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.544999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.654999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.209999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.764999999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13.319999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13.874999999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14.429999999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14.984999999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15.539999999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16.094999999999995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16.649999999999995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.204999999999995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17.759999999999994</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18.314999999999994</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>18.869999999999994</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19.424999999999994</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>19.979999999999993</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20.534999999999993</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>21.089999999999993</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>21.644999999999992</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>22.199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>22.754999999999992</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>23.309999999999992</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>23.864999999999991</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>24.419999999999991</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>24.974999999999991</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25.52999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>26.08499999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>26.63999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>27.19499999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>27.749999999999989</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>28.304999999999989</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>28.859999999999989</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>29.414999999999988</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>29.969999999999988</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>30.524999999999988</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>31.079999999999988</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>31.634999999999987</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>32.189999999999991</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>32.74499999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>33.29999999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>33.85499999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>34.409999999999989</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>34.964999999999989</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>35.519999999999989</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>36.074999999999989</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>36.629999999999988</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>37.184999999999988</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>37.739999999999988</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>38.294999999999987</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>38.849999999999987</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>39.404999999999987</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>39.959999999999987</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>40.514999999999986</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>41.069999999999986</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>41.624999999999986</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42.179999999999986</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42.734999999999985</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>43.289999999999985</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43.844999999999985</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44.399999999999984</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44.954999999999984</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45.509999999999984</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>46.064999999999984</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>46.619999999999983</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>47.174999999999983</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>47.729999999999983</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>48.284999999999982</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>48.839999999999982</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>49.394999999999982</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>49.949999999999982</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>50.504999999999981</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>51.059999999999981</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>51.614999999999981</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>52.16999999999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>52.72499999999998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>53.27999999999998</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>53.83499999999998</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>54.389999999999979</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>54.944999999999979</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>55.499999999999979</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'OptimalReleaseTime (graph)'!$E$1:$E$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2739513289344662</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.437109661408928</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4948731288206671</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4523768511536446</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.314505751598732</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.085906746811233</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.771000343226513</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.373991668372039</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.898880964704357</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.349473572158292</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.729389424319553</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.042072081918455</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.290797326187576</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.478681333528094</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.608688451884433</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.683638598233156</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26.706214295646376</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27.678967367490618</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28.604325305466364</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29.484597327379685</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30.321980139763017</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31.118563419725604</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31.876335029713555</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32.59718597819279</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>33.282915138634252</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33.935233738577523</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34.555769629975238</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35.146071351474895</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>35.707611992775398</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>36.24179287070185</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36.749947026172102</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37.233342550781707</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>37.693185751308832</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>38.130624160035943</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>38.546749398400564</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38.942599901121376</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39.319163507597494</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39.67737992704793</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40.018143083542782</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40.342303346778294</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40.650669654162535</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40.944011529507414</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>41.22306100336457</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>41.488514439797434</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>41.741034274147978</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>41.981250666134883</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42.209763072408286</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42.427141742485503</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42.633929141800728</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42.830641305419924</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43.017769125799155</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43.195779577799804</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43.365116884017873</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43.526203623335213</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43.679441785459261</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43.825213774082712</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43.963883361166587</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44.095796594728121</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44.221282662398707</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44.340654712907046</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44.454210637537443</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44.562233813513338</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44.664993811161168</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44.762747066619426</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44.855737521771388</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44.944197232998732</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45.028346950274944</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45.108396668043838</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45.184546149257741</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45.25698542388313</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45.325895263117786</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45.391447630502796</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45.453806111055123</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45.513126319491789</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45.569556288564172</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45.623236838471726</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45.674301928276769</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45.722878990197479</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45.769089247613216</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45.81304801757576</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45.854864998581391</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45.894644544322006</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45.932485924098224</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45.968483570544606</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>46.002727315284929</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>46.035302613105785</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>46.066290755207767</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>46.095769072066567</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>46.123811126410054</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>46.150486896793069</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>46.175862952227924</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>46.200002618306428</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>46.22296613522802</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>46.244810808128356</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>46.265591150083466</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>46.28535901814638</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>46.304163742755676</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>46.322052250838894</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>46.339069182918031</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>46.355257004509355</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="396893248"/>
+        <c:axId val="573034984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="396893248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="573034984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="573034984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Number of Faults</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="396893248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4041,11 +6689,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="402919728"/>
-        <c:axId val="402920904"/>
+        <c:axId val="348930608"/>
+        <c:axId val="348930216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="402919728"/>
+        <c:axId val="348930608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4076,12 +6724,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="402920904"/>
+        <c:crossAx val="348930216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="402920904"/>
+        <c:axId val="348930216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4111,7 +6759,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="402919728"/>
+        <c:crossAx val="348930608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4882,11 +7530,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="402922864"/>
-        <c:axId val="402921688"/>
+        <c:axId val="348925904"/>
+        <c:axId val="348926296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="402922864"/>
+        <c:axId val="348925904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4916,12 +7564,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="402921688"/>
+        <c:crossAx val="348926296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="402921688"/>
+        <c:axId val="348926296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4951,7 +7599,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="402922864"/>
+        <c:crossAx val="348925904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5646,11 +8294,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="402922080"/>
-        <c:axId val="402923648"/>
+        <c:axId val="348929824"/>
+        <c:axId val="347536600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="402922080"/>
+        <c:axId val="348929824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="8"/>
@@ -5681,12 +8329,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="402923648"/>
+        <c:crossAx val="347536600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="402923648"/>
+        <c:axId val="347536600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5717,7 +8365,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="402922080"/>
+        <c:crossAx val="348929824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6406,11 +9054,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="99494352"/>
-        <c:axId val="99491216"/>
+        <c:axId val="396131912"/>
+        <c:axId val="396129168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99494352"/>
+        <c:axId val="396131912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6441,12 +9089,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99491216"/>
+        <c:crossAx val="396129168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99491216"/>
+        <c:axId val="396129168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6476,7 +9124,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99494352"/>
+        <c:crossAx val="396131912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7247,11 +9895,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="99492000"/>
-        <c:axId val="99493960"/>
+        <c:axId val="396134656"/>
+        <c:axId val="396129560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99492000"/>
+        <c:axId val="396134656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7281,12 +9929,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99493960"/>
+        <c:crossAx val="396129560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99493960"/>
+        <c:axId val="396129560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7316,7 +9964,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99492000"/>
+        <c:crossAx val="396134656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7352,7 +10000,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8012,11 +10659,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="99492392"/>
-        <c:axId val="99492784"/>
+        <c:axId val="396129952"/>
+        <c:axId val="396135832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99492392"/>
+        <c:axId val="396129952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="8"/>
@@ -8041,19 +10688,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99492784"/>
+        <c:crossAx val="396135832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99492784"/>
+        <c:axId val="396135832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -8078,21 +10724,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99492392"/>
+        <c:crossAx val="396129952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8122,7 +10766,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8776,11 +11419,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="99489648"/>
-        <c:axId val="99488472"/>
+        <c:axId val="396130344"/>
+        <c:axId val="396132696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99489648"/>
+        <c:axId val="396130344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8805,19 +11448,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99488472"/>
+        <c:crossAx val="396132696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99488472"/>
+        <c:axId val="396132696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8841,21 +11483,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99489648"/>
+        <c:crossAx val="396130344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9620,11 +12260,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="99493568"/>
-        <c:axId val="99488864"/>
+        <c:axId val="396133088"/>
+        <c:axId val="396133480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99493568"/>
+        <c:axId val="396133088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9648,19 +12288,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99488864"/>
+        <c:crossAx val="396133480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99488864"/>
+        <c:axId val="396133480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9684,21 +12323,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99493568"/>
+        <c:crossAx val="396133088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10062,16 +12699,111 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>568960</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>264160</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>119380</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10362,7 +13094,7 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1">
@@ -12435,11 +15167,3231 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>37</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="K1">
+        <v>3.9957343463523789</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="E2">
+        <v>2.2739513289344662</v>
+      </c>
+      <c r="G2">
+        <v>37.185000000000002</v>
+      </c>
+      <c r="H2">
+        <v>0.97279277422741883</v>
+      </c>
+      <c r="J2">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="K2">
+        <v>3.8010514718082016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E3">
+        <v>4.437109661408928</v>
+      </c>
+      <c r="G3">
+        <v>37.370000000000005</v>
+      </c>
+      <c r="H3">
+        <v>0.94675690401479273</v>
+      </c>
+      <c r="J3">
+        <v>1.665</v>
+      </c>
+      <c r="K3">
+        <v>3.6158540681075455</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>1.665</v>
+      </c>
+      <c r="E4">
+        <v>6.4948731288206671</v>
+      </c>
+      <c r="G4">
+        <v>37.555000000000007</v>
+      </c>
+      <c r="H4">
+        <v>0.92183070112456633</v>
+      </c>
+      <c r="J4">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="K4">
+        <v>3.4396799777168643</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="E5">
+        <v>8.4523768511536446</v>
+      </c>
+      <c r="G5">
+        <v>37.740000000000009</v>
+      </c>
+      <c r="H5">
+        <v>0.89795626604419443</v>
+      </c>
+      <c r="J5">
+        <v>2.7750000000000004</v>
+      </c>
+      <c r="K5">
+        <v>3.2720895606549094</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>2.7750000000000004</v>
+      </c>
+      <c r="E6">
+        <v>10.314505751598732</v>
+      </c>
+      <c r="G6">
+        <v>37.925000000000011</v>
+      </c>
+      <c r="H6">
+        <v>0.87507922524233583</v>
+      </c>
+      <c r="J6">
+        <v>3.3300000000000005</v>
+      </c>
+      <c r="K6">
+        <v>3.1126645973773046</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>3.3300000000000005</v>
+      </c>
+      <c r="E7">
+        <v>12.085906746811233</v>
+      </c>
+      <c r="G7">
+        <v>38.110000000000014</v>
+      </c>
+      <c r="H7">
+        <v>0.85314848857251446</v>
+      </c>
+      <c r="J7">
+        <v>3.8850000000000007</v>
+      </c>
+      <c r="K7">
+        <v>2.9610072451155114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>3.8850000000000007</v>
+      </c>
+      <c r="E8">
+        <v>13.771000343226513</v>
+      </c>
+      <c r="G8">
+        <v>38.295000000000016</v>
+      </c>
+      <c r="H8">
+        <v>0.83211602514063421</v>
+      </c>
+      <c r="J8">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="K8">
+        <v>2.8167390450657606</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="E9">
+        <v>15.373991668372039</v>
+      </c>
+      <c r="G9">
+        <v>38.480000000000018</v>
+      </c>
+      <c r="H9">
+        <v>0.81193665610458754</v>
+      </c>
+      <c r="J9">
+        <v>4.9950000000000001</v>
+      </c>
+      <c r="K9">
+        <v>2.6794999779503956</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>4.9950000000000001</v>
+      </c>
+      <c r="E10">
+        <v>16.898880964704357</v>
+      </c>
+      <c r="G10">
+        <v>38.66500000000002</v>
+      </c>
+      <c r="H10">
+        <v>0.79256786301094639</v>
+      </c>
+      <c r="J10">
+        <v>5.55</v>
+      </c>
+      <c r="K10">
+        <v>2.548947565594792</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <v>5.55</v>
+      </c>
+      <c r="E11">
+        <v>18.349473572158292</v>
+      </c>
+      <c r="G11">
+        <v>38.850000000000023</v>
+      </c>
+      <c r="H11">
+        <v>0.77396961039793133</v>
+      </c>
+      <c r="J11">
+        <v>6.1049999999999995</v>
+      </c>
+      <c r="K11">
+        <v>2.4247560162778612</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>33</v>
+      </c>
+      <c r="D12">
+        <v>6.1049999999999995</v>
+      </c>
+      <c r="E12">
+        <v>19.729389424319553</v>
+      </c>
+      <c r="G12">
+        <v>39.035000000000025</v>
+      </c>
+      <c r="H12">
+        <v>0.75610418150582814</v>
+      </c>
+      <c r="J12">
+        <v>6.6599999999999993</v>
+      </c>
+      <c r="K12">
+        <v>2.3066154117233575</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <v>6.6599999999999993</v>
+      </c>
+      <c r="E13">
+        <v>21.042072081918455</v>
+      </c>
+      <c r="G13">
+        <v>39.220000000000027</v>
+      </c>
+      <c r="H13">
+        <v>0.73893602603775232</v>
+      </c>
+      <c r="J13">
+        <v>7.214999999999999</v>
+      </c>
+      <c r="K13">
+        <v>2.1942309337031558</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>36</v>
+      </c>
+      <c r="D14">
+        <v>7.214999999999999</v>
+      </c>
+      <c r="E14">
+        <v>22.290797326187576</v>
+      </c>
+      <c r="G14">
+        <v>39.40500000000003</v>
+      </c>
+      <c r="H14">
+        <v>0.72243161900557151</v>
+      </c>
+      <c r="J14">
+        <v>7.7699999999999987</v>
+      </c>
+      <c r="K14">
+        <v>2.0873221283224757</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>37</v>
+      </c>
+      <c r="D15">
+        <v>7.7699999999999987</v>
+      </c>
+      <c r="E15">
+        <v>23.478681333528094</v>
+      </c>
+      <c r="G15">
+        <v>39.590000000000032</v>
+      </c>
+      <c r="H15">
+        <v>0.7065593297793229</v>
+      </c>
+      <c r="J15">
+        <v>8.3249999999999993</v>
+      </c>
+      <c r="K15">
+        <v>1.98562220615111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>37</v>
+      </c>
+      <c r="D16">
+        <v>8.3249999999999993</v>
+      </c>
+      <c r="E16">
+        <v>24.608688451884433</v>
+      </c>
+      <c r="G16">
+        <v>39.775000000000034</v>
+      </c>
+      <c r="H16">
+        <v>0.69128930053425963</v>
+      </c>
+      <c r="J16">
+        <v>8.879999999999999</v>
+      </c>
+      <c r="K16">
+        <v>1.888877376454126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>38</v>
+      </c>
+      <c r="D17">
+        <v>8.879999999999999</v>
+      </c>
+      <c r="E17">
+        <v>25.683638598233156</v>
+      </c>
+      <c r="G17">
+        <v>39.960000000000036</v>
+      </c>
+      <c r="H17">
+        <v>0.67659333335830818</v>
+      </c>
+      <c r="J17">
+        <v>9.4349999999999987</v>
+      </c>
+      <c r="K17">
+        <v>1.7968462138606347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>38</v>
+      </c>
+      <c r="D18">
+        <v>9.4349999999999987</v>
+      </c>
+      <c r="E18">
+        <v>26.706214295646376</v>
+      </c>
+      <c r="G18">
+        <v>40.145000000000039</v>
+      </c>
+      <c r="H18">
+        <v>0.66244478534534357</v>
+      </c>
+      <c r="J18">
+        <v>9.9899999999999984</v>
+      </c>
+      <c r="K18">
+        <v>1.7092990558901482</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>38</v>
+      </c>
+      <c r="D19">
+        <v>9.9899999999999984</v>
+      </c>
+      <c r="E19">
+        <v>27.678967367490618</v>
+      </c>
+      <c r="G19">
+        <v>40.330000000000041</v>
+      </c>
+      <c r="H19">
+        <v>0.64881847105636725</v>
+      </c>
+      <c r="J19">
+        <v>10.544999999999998</v>
+      </c>
+      <c r="K19">
+        <v>1.6260174298330701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>38</v>
+      </c>
+      <c r="D20">
+        <v>10.544999999999998</v>
+      </c>
+      <c r="E20">
+        <v>28.604325305466364</v>
+      </c>
+      <c r="G20">
+        <v>40.515000000000043</v>
+      </c>
+      <c r="H20">
+        <v>0.63569057178249022</v>
+      </c>
+      <c r="J20">
+        <v>11.099999999999998</v>
+      </c>
+      <c r="K20">
+        <v>1.5467935075550998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>38</v>
+      </c>
+      <c r="D21">
+        <v>11.099999999999998</v>
+      </c>
+      <c r="E21">
+        <v>29.484597327379685</v>
+      </c>
+      <c r="G21">
+        <v>40.700000000000045</v>
+      </c>
+      <c r="H21">
+        <v>0.62303855109057416</v>
+      </c>
+      <c r="J21">
+        <v>11.654999999999998</v>
+      </c>
+      <c r="K21">
+        <v>1.4714295868650276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>39</v>
+      </c>
+      <c r="D22">
+        <v>11.654999999999998</v>
+      </c>
+      <c r="E22">
+        <v>30.321980139763017</v>
+      </c>
+      <c r="G22">
+        <v>40.885000000000048</v>
+      </c>
+      <c r="H22">
+        <v>0.61084107617532168</v>
+      </c>
+      <c r="J22">
+        <v>12.209999999999997</v>
+      </c>
+      <c r="K22">
+        <v>1.3997375981516789</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>41</v>
+      </c>
+      <c r="D23">
+        <v>12.209999999999997</v>
+      </c>
+      <c r="E23">
+        <v>31.118563419725604</v>
+      </c>
+      <c r="G23">
+        <v>41.07000000000005</v>
+      </c>
+      <c r="H23">
+        <v>0.59907794458058461</v>
+      </c>
+      <c r="J23">
+        <v>12.764999999999997</v>
+      </c>
+      <c r="K23">
+        <v>1.3315386350588254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>41</v>
+      </c>
+      <c r="D24">
+        <v>12.764999999999997</v>
+      </c>
+      <c r="E24">
+        <v>31.876335029713555</v>
+      </c>
+      <c r="G24">
+        <v>41.255000000000052</v>
+      </c>
+      <c r="H24">
+        <v>0.58773001588839546</v>
+      </c>
+      <c r="J24">
+        <v>13.319999999999997</v>
+      </c>
+      <c r="K24">
+        <v>1.2666625080268756</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>41</v>
+      </c>
+      <c r="D25">
+        <v>13.319999999999997</v>
+      </c>
+      <c r="E25">
+        <v>32.59718597819279</v>
+      </c>
+      <c r="G25">
+        <v>41.440000000000055</v>
+      </c>
+      <c r="H25">
+        <v>0.57677914800663366</v>
+      </c>
+      <c r="J25">
+        <v>13.874999999999996</v>
+      </c>
+      <c r="K25">
+        <v>1.2049473195872029</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>41</v>
+      </c>
+      <c r="D26">
+        <v>13.874999999999996</v>
+      </c>
+      <c r="E26">
+        <v>33.282915138634252</v>
+      </c>
+      <c r="G26">
+        <v>41.625000000000057</v>
+      </c>
+      <c r="H26">
+        <v>0.56620813771605649</v>
+      </c>
+      <c r="J26">
+        <v>14.429999999999996</v>
+      </c>
+      <c r="K26">
+        <v>1.1462390603492774</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>42</v>
+      </c>
+      <c r="D27">
+        <v>14.429999999999996</v>
+      </c>
+      <c r="E27">
+        <v>33.935233738577523</v>
+      </c>
+      <c r="G27">
+        <v>41.810000000000059</v>
+      </c>
+      <c r="H27">
+        <v>0.5560006651643612</v>
+      </c>
+      <c r="J27">
+        <v>14.984999999999996</v>
+      </c>
+      <c r="K27">
+        <v>1.0903912246723819</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>42</v>
+      </c>
+      <c r="D28">
+        <v>14.984999999999996</v>
+      </c>
+      <c r="E28">
+        <v>34.555769629975238</v>
+      </c>
+      <c r="G28">
+        <v>41.995000000000061</v>
+      </c>
+      <c r="H28">
+        <v>0.5461412420199796</v>
+      </c>
+      <c r="J28">
+        <v>15.539999999999996</v>
+      </c>
+      <c r="K28">
+        <v>1.0372644450628339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>42</v>
+      </c>
+      <c r="D29">
+        <v>15.539999999999996</v>
+      </c>
+      <c r="E29">
+        <v>35.146071351474895</v>
+      </c>
+      <c r="G29">
+        <v>42.180000000000064</v>
+      </c>
+      <c r="H29">
+        <v>0.53661516302078482</v>
+      </c>
+      <c r="J29">
+        <v>16.094999999999995</v>
+      </c>
+      <c r="K29">
+        <v>0.98672614438434925</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>43</v>
+      </c>
+      <c r="D30">
+        <v>16.094999999999995</v>
+      </c>
+      <c r="E30">
+        <v>35.707611992775398</v>
+      </c>
+      <c r="G30">
+        <v>42.365000000000066</v>
+      </c>
+      <c r="H30">
+        <v>0.52740846067375469</v>
+      </c>
+      <c r="J30">
+        <v>16.649999999999995</v>
+      </c>
+      <c r="K30">
+        <v>0.93865020501365504</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>43</v>
+      </c>
+      <c r="D31">
+        <v>16.649999999999995</v>
+      </c>
+      <c r="E31">
+        <v>36.24179287070185</v>
+      </c>
+      <c r="G31">
+        <v>42.550000000000068</v>
+      </c>
+      <c r="H31">
+        <v>0.51850786288065209</v>
+      </c>
+      <c r="J31">
+        <v>17.204999999999995</v>
+      </c>
+      <c r="K31">
+        <v>0.8929166541157183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>43</v>
+      </c>
+      <c r="D32">
+        <v>17.204999999999995</v>
+      </c>
+      <c r="E32">
+        <v>36.749947026172102</v>
+      </c>
+      <c r="G32">
+        <v>42.73500000000007</v>
+      </c>
+      <c r="H32">
+        <v>0.50990075328214335</v>
+      </c>
+      <c r="J32">
+        <v>17.759999999999994</v>
+      </c>
+      <c r="K32">
+        <v>0.84941136425321595</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>43</v>
+      </c>
+      <c r="D33">
+        <v>17.759999999999994</v>
+      </c>
+      <c r="E33">
+        <v>37.233342550781707</v>
+      </c>
+      <c r="G33">
+        <v>42.920000000000073</v>
+      </c>
+      <c r="H33">
+        <v>0.5015751341288156</v>
+      </c>
+      <c r="J33">
+        <v>18.314999999999994</v>
+      </c>
+      <c r="K33">
+        <v>0.80802576858310671</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>44</v>
+      </c>
+      <c r="D34">
+        <v>18.314999999999994</v>
+      </c>
+      <c r="E34">
+        <v>37.693185751308832</v>
+      </c>
+      <c r="G34">
+        <v>43.105000000000075</v>
+      </c>
+      <c r="H34">
+        <v>0.49351959150214997</v>
+      </c>
+      <c r="J34">
+        <v>18.869999999999994</v>
+      </c>
+      <c r="K34">
+        <v>0.76865658992959307</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>45</v>
+      </c>
+      <c r="D35">
+        <v>18.869999999999994</v>
+      </c>
+      <c r="E35">
+        <v>38.130624160035943</v>
+      </c>
+      <c r="G35">
+        <v>43.290000000000077</v>
+      </c>
+      <c r="H35">
+        <v>0.4857232627219647</v>
+      </c>
+      <c r="J35">
+        <v>19.424999999999994</v>
+      </c>
+      <c r="K35">
+        <v>0.73120558305737049</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>45</v>
+      </c>
+      <c r="D36">
+        <v>19.424999999999994</v>
+      </c>
+      <c r="E36">
+        <v>38.546749398400564</v>
+      </c>
+      <c r="G36">
+        <v>43.47500000000008</v>
+      </c>
+      <c r="H36">
+        <v>0.47817580578925711</v>
+      </c>
+      <c r="J36">
+        <v>19.979999999999993</v>
+      </c>
+      <c r="K36">
+        <v>0.69557928950201664</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>45</v>
+      </c>
+      <c r="D37">
+        <v>19.979999999999993</v>
+      </c>
+      <c r="E37">
+        <v>38.942599901121376</v>
+      </c>
+      <c r="G37">
+        <v>43.660000000000082</v>
+      </c>
+      <c r="H37">
+        <v>0.47086737072456569</v>
+      </c>
+      <c r="J37">
+        <v>20.534999999999993</v>
+      </c>
+      <c r="K37">
+        <v>0.66168880434569777</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <v>20.534999999999993</v>
+      </c>
+      <c r="E38">
+        <v>39.319163507597494</v>
+      </c>
+      <c r="G38">
+        <v>43.845000000000084</v>
+      </c>
+      <c r="H38">
+        <v>0.46378857267258289</v>
+      </c>
+      <c r="J38">
+        <v>21.089999999999993</v>
+      </c>
+      <c r="K38">
+        <v>0.62944955435618899</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <v>21.089999999999993</v>
+      </c>
+      <c r="E39">
+        <v>39.67737992704793</v>
+      </c>
+      <c r="G39">
+        <v>44.030000000000086</v>
+      </c>
+      <c r="H39">
+        <v>0.45693046665320952</v>
+      </c>
+      <c r="J39">
+        <v>21.644999999999992</v>
+      </c>
+      <c r="K39">
+        <v>0.59878108693555554</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>21.644999999999992</v>
+      </c>
+      <c r="E40">
+        <v>40.018143083542782</v>
+      </c>
+      <c r="G40">
+        <v>44.215000000000089</v>
+      </c>
+      <c r="H40">
+        <v>0.4502845238481118</v>
+      </c>
+      <c r="J40">
+        <v>22.199999999999992</v>
+      </c>
+      <c r="K40">
+        <v>0.56960686935181704</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <v>22.199999999999992</v>
+      </c>
+      <c r="E41">
+        <v>40.342303346778294</v>
+      </c>
+      <c r="G41">
+        <v>44.400000000000091</v>
+      </c>
+      <c r="H41">
+        <v>0.44384260931996861</v>
+      </c>
+      <c r="J41">
+        <v>22.754999999999992</v>
+      </c>
+      <c r="K41">
+        <v>0.54185409775258575</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <v>22.754999999999992</v>
+      </c>
+      <c r="E42">
+        <v>40.650669654162535</v>
+      </c>
+      <c r="G42">
+        <v>44.585000000000093</v>
+      </c>
+      <c r="H42">
+        <v>0.43759696106910656</v>
+      </c>
+      <c r="J42">
+        <v>23.309999999999992</v>
+      </c>
+      <c r="K42">
+        <v>0.5154535154840687</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <v>23.309999999999992</v>
+      </c>
+      <c r="E43">
+        <v>40.944011529507414</v>
+      </c>
+      <c r="G43">
+        <v>44.770000000000095</v>
+      </c>
+      <c r="H43">
+        <v>0.43154017033902831</v>
+      </c>
+      <c r="J43">
+        <v>23.864999999999991</v>
+      </c>
+      <c r="K43">
+        <v>0.49033924026205655</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <v>23.864999999999991</v>
+      </c>
+      <c r="E44">
+        <v>41.22306100336457</v>
+      </c>
+      <c r="G44">
+        <v>44.955000000000098</v>
+      </c>
+      <c r="H44">
+        <v>0.4256651630888485</v>
+      </c>
+      <c r="J44">
+        <v>24.419999999999991</v>
+      </c>
+      <c r="K44">
+        <v>0.46644859976360387</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <v>24.419999999999991</v>
+      </c>
+      <c r="E45">
+        <v>41.488514439797434</v>
+      </c>
+      <c r="G45">
+        <v>45.1400000000001</v>
+      </c>
+      <c r="H45">
+        <v>0.41996518255635229</v>
+      </c>
+      <c r="J45">
+        <v>24.974999999999991</v>
+      </c>
+      <c r="K45">
+        <v>0.44372197522912166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <v>24.974999999999991</v>
+      </c>
+      <c r="E46">
+        <v>41.741034274147978</v>
+      </c>
+      <c r="G46">
+        <v>45.325000000000102</v>
+      </c>
+      <c r="H46">
+        <v>0.41443377284095578</v>
+      </c>
+      <c r="J46">
+        <v>25.52999999999999</v>
+      </c>
+      <c r="K46">
+        <v>0.4221026526845974</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <v>25.52999999999999</v>
+      </c>
+      <c r="E47">
+        <v>41.981250666134883</v>
+      </c>
+      <c r="G47">
+        <v>45.510000000000105</v>
+      </c>
+      <c r="H47">
+        <v>0.40906476344072212</v>
+      </c>
+      <c r="J47">
+        <v>26.08499999999999</v>
+      </c>
+      <c r="K47">
+        <v>0.40153668141266413</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <v>26.08499999999999</v>
+      </c>
+      <c r="E48">
+        <v>42.209763072408286</v>
+      </c>
+      <c r="G48">
+        <v>45.695000000000107</v>
+      </c>
+      <c r="H48">
+        <v>0.40385225468233155</v>
+      </c>
+      <c r="J48">
+        <v>26.63999999999999</v>
+      </c>
+      <c r="K48">
+        <v>0.38197273931933939</v>
+      </c>
+    </row>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D49">
+        <v>26.63999999999999</v>
+      </c>
+      <c r="E49">
+        <v>42.427141742485503</v>
+      </c>
+      <c r="G49">
+        <v>45.880000000000109</v>
+      </c>
+      <c r="H49">
+        <v>0.3987906039870377</v>
+      </c>
+      <c r="J49">
+        <v>27.19499999999999</v>
+      </c>
+      <c r="K49">
+        <v>0.36336200486045633</v>
+      </c>
+    </row>
+    <row r="50" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <v>27.19499999999999</v>
+      </c>
+      <c r="E50">
+        <v>42.633929141800728</v>
+      </c>
+      <c r="G50">
+        <v>46.065000000000111</v>
+      </c>
+      <c r="H50">
+        <v>0.39387441291974773</v>
+      </c>
+      <c r="J50">
+        <v>27.749999999999989</v>
+      </c>
+      <c r="K50">
+        <v>0.34565803520818283</v>
+      </c>
+    </row>
+    <row r="51" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <v>27.749999999999989</v>
+      </c>
+      <c r="E51">
+        <v>42.830641305419924</v>
+      </c>
+      <c r="G51">
+        <v>46.250000000000114</v>
+      </c>
+      <c r="H51">
+        <v>0.3890985149718344</v>
+      </c>
+      <c r="J51">
+        <v>28.304999999999989</v>
+      </c>
+      <c r="K51">
+        <v>0.32881665035359342</v>
+      </c>
+    </row>
+    <row r="52" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <v>28.304999999999989</v>
+      </c>
+      <c r="E52">
+        <v>43.017769125799155</v>
+      </c>
+      <c r="G52">
+        <v>46.435000000000116</v>
+      </c>
+      <c r="H52">
+        <v>0.38445796403186566</v>
+      </c>
+      <c r="J52">
+        <v>28.859999999999989</v>
+      </c>
+      <c r="K52">
+        <v>0.31279582285607399</v>
+      </c>
+    </row>
+    <row r="53" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <v>28.859999999999989</v>
+      </c>
+      <c r="E53">
+        <v>43.195779577799804</v>
+      </c>
+      <c r="G53">
+        <v>46.620000000000118</v>
+      </c>
+      <c r="H53">
+        <v>0.37994802350139106</v>
+      </c>
+      <c r="J53">
+        <v>29.414999999999988</v>
+      </c>
+      <c r="K53">
+        <v>0.2975555729644308</v>
+      </c>
+    </row>
+    <row r="54" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D54">
+        <v>29.414999999999988</v>
+      </c>
+      <c r="E54">
+        <v>43.365116884017873</v>
+      </c>
+      <c r="G54">
+        <v>46.805000000000121</v>
+      </c>
+      <c r="H54">
+        <v>0.37556415601596843</v>
+      </c>
+      <c r="J54">
+        <v>29.969999999999988</v>
+      </c>
+      <c r="K54">
+        <v>0.28305786884798034</v>
+      </c>
+    </row>
+    <row r="55" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D55">
+        <v>29.969999999999988</v>
+      </c>
+      <c r="E55">
+        <v>43.526203623335213</v>
+      </c>
+      <c r="G55">
+        <v>46.990000000000123</v>
+      </c>
+      <c r="H55">
+        <v>0.37130201373418004</v>
+      </c>
+      <c r="J55">
+        <v>30.524999999999988</v>
+      </c>
+      <c r="K55">
+        <v>0.26926653168864711</v>
+      </c>
+    </row>
+    <row r="56" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D56">
+        <v>30.524999999999988</v>
+      </c>
+      <c r="E56">
+        <v>43.679441785459261</v>
+      </c>
+      <c r="G56">
+        <v>47.175000000000125</v>
+      </c>
+      <c r="H56">
+        <v>0.36715742915998539</v>
+      </c>
+      <c r="J56">
+        <v>31.079999999999988</v>
+      </c>
+      <c r="K56">
+        <v>0.25614714539722838</v>
+      </c>
+    </row>
+    <row r="57" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D57">
+        <v>31.079999999999988</v>
+      </c>
+      <c r="E57">
+        <v>43.825213774082712</v>
+      </c>
+      <c r="G57">
+        <v>47.360000000000127</v>
+      </c>
+      <c r="H57">
+        <v>0.36312640646599958</v>
+      </c>
+      <c r="J57">
+        <v>31.634999999999987</v>
+      </c>
+      <c r="K57">
+        <v>0.24366697072852428</v>
+      </c>
+    </row>
+    <row r="58" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D58">
+        <v>31.634999999999987</v>
+      </c>
+      <c r="E58">
+        <v>43.963883361166587</v>
+      </c>
+      <c r="G58">
+        <v>47.54500000000013</v>
+      </c>
+      <c r="H58">
+        <v>0.35920511328747778</v>
+      </c>
+      <c r="J58">
+        <v>32.189999999999991</v>
+      </c>
+      <c r="K58">
+        <v>0.23179486358100931</v>
+      </c>
+    </row>
+    <row r="59" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D59">
+        <v>32.189999999999991</v>
+      </c>
+      <c r="E59">
+        <v>44.095796594728121</v>
+      </c>
+      <c r="G59">
+        <v>47.730000000000132</v>
+      </c>
+      <c r="H59">
+        <v>0.35538987295871211</v>
+      </c>
+      <c r="J59">
+        <v>32.74499999999999</v>
+      </c>
+      <c r="K59">
+        <v>0.22050119727716169</v>
+      </c>
+    </row>
+    <row r="60" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D60">
+        <v>32.74499999999999</v>
+      </c>
+      <c r="E60">
+        <v>44.221282662398707</v>
+      </c>
+      <c r="G60">
+        <v>47.915000000000134</v>
+      </c>
+      <c r="H60">
+        <v>0.35167715716551134</v>
+      </c>
+      <c r="J60">
+        <v>33.29999999999999</v>
+      </c>
+      <c r="K60">
+        <v>0.20975778863050365</v>
+      </c>
+    </row>
+    <row r="61" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D61">
+        <v>33.29999999999999</v>
+      </c>
+      <c r="E61">
+        <v>44.340654712907046</v>
+      </c>
+      <c r="G61">
+        <v>48.100000000000136</v>
+      </c>
+      <c r="H61">
+        <v>0.34806357898901424</v>
+      </c>
+      <c r="J61">
+        <v>33.85499999999999</v>
+      </c>
+      <c r="K61">
+        <v>0.19953782761485328</v>
+      </c>
+    </row>
+    <row r="62" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D62">
+        <v>33.85499999999999</v>
+      </c>
+      <c r="E62">
+        <v>44.454210637537443</v>
+      </c>
+      <c r="G62">
+        <v>48.285000000000139</v>
+      </c>
+      <c r="H62">
+        <v>0.34454588631782262</v>
+      </c>
+      <c r="J62">
+        <v>34.409999999999989</v>
+      </c>
+      <c r="K62">
+        <v>0.18981581046027879</v>
+      </c>
+    </row>
+    <row r="63" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D63">
+        <v>34.409999999999989</v>
+      </c>
+      <c r="E63">
+        <v>44.562233813513338</v>
+      </c>
+      <c r="G63">
+        <v>48.470000000000141</v>
+      </c>
+      <c r="H63">
+        <v>0.34112095560678796</v>
+      </c>
+      <c r="J63">
+        <v>34.964999999999989</v>
+      </c>
+      <c r="K63">
+        <v>0.18056747600879702</v>
+      </c>
+    </row>
+    <row r="64" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D64">
+        <v>34.964999999999989</v>
+      </c>
+      <c r="E64">
+        <v>44.664993811161168</v>
+      </c>
+      <c r="G64">
+        <v>48.655000000000143</v>
+      </c>
+      <c r="H64">
+        <v>0.33778578596233516</v>
+      </c>
+      <c r="J64">
+        <v>35.519999999999989</v>
+      </c>
+      <c r="K64">
+        <v>0.17176974517099239</v>
+      </c>
+    </row>
+    <row r="65" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D65">
+        <v>35.519999999999989</v>
+      </c>
+      <c r="E65">
+        <v>44.762747066619426</v>
+      </c>
+      <c r="G65">
+        <v>48.840000000000146</v>
+      </c>
+      <c r="H65">
+        <v>0.3345374935352935</v>
+      </c>
+      <c r="J65">
+        <v>36.074999999999989</v>
+      </c>
+      <c r="K65">
+        <v>0.16340066333247202</v>
+      </c>
+    </row>
+    <row r="66" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D66">
+        <v>36.074999999999989</v>
+      </c>
+      <c r="E66">
+        <v>44.855737521771388</v>
+      </c>
+      <c r="G66">
+        <v>49.025000000000148</v>
+      </c>
+      <c r="H66">
+        <v>0.33137330620360944</v>
+      </c>
+      <c r="J66">
+        <v>36.629999999999988</v>
+      </c>
+      <c r="K66">
+        <v>0.15543934556643219</v>
+      </c>
+    </row>
+    <row r="67" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D67">
+        <v>36.629999999999988</v>
+      </c>
+      <c r="E67">
+        <v>44.944197232998732</v>
+      </c>
+      <c r="G67">
+        <v>49.21000000000015</v>
+      </c>
+      <c r="H67">
+        <v>0.32829055852826078</v>
+      </c>
+      <c r="J67">
+        <v>37.184999999999988</v>
+      </c>
+      <c r="K67">
+        <v>0.14786592451561489</v>
+      </c>
+    </row>
+    <row r="68" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D68">
+        <v>37.184999999999988</v>
+      </c>
+      <c r="E68">
+        <v>45.028346950274944</v>
+      </c>
+      <c r="G68">
+        <v>49.395000000000152</v>
+      </c>
+      <c r="H68">
+        <v>0.32528668696685142</v>
+      </c>
+      <c r="J68">
+        <v>37.739999999999988</v>
+      </c>
+      <c r="K68">
+        <v>0.14066150081359591</v>
+      </c>
+    </row>
+    <row r="69" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D69">
+        <v>37.739999999999988</v>
+      </c>
+      <c r="E69">
+        <v>45.108396668043838</v>
+      </c>
+      <c r="G69">
+        <v>49.580000000000155</v>
+      </c>
+      <c r="H69">
+        <v>0.32235922533026484</v>
+      </c>
+      <c r="J69">
+        <v>38.294999999999987</v>
+      </c>
+      <c r="K69">
+        <v>0.13380809592167969</v>
+      </c>
+    </row>
+    <row r="70" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D70">
+        <v>38.294999999999987</v>
+      </c>
+      <c r="E70">
+        <v>45.184546149257741</v>
+      </c>
+      <c r="G70">
+        <v>49.765000000000157</v>
+      </c>
+      <c r="H70">
+        <v>0.31950580046868987</v>
+      </c>
+      <c r="J70">
+        <v>38.849999999999987</v>
+      </c>
+      <c r="K70">
+        <v>0.12728860726370719</v>
+      </c>
+    </row>
+    <row r="71" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D71">
+        <v>38.849999999999987</v>
+      </c>
+      <c r="E71">
+        <v>45.25698542388313</v>
+      </c>
+      <c r="G71">
+        <v>49.950000000000159</v>
+      </c>
+      <c r="H71">
+        <v>0.31672412817417228</v>
+      </c>
+      <c r="J71">
+        <v>39.404999999999987</v>
+      </c>
+      <c r="K71">
+        <v>0.12108676554681592</v>
+      </c>
+    </row>
+    <row r="72" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D72">
+        <v>39.404999999999987</v>
+      </c>
+      <c r="E72">
+        <v>45.325895263117786</v>
+      </c>
+      <c r="G72">
+        <v>50.135000000000161</v>
+      </c>
+      <c r="H72">
+        <v>0.31401200928763495</v>
+      </c>
+      <c r="J72">
+        <v>39.959999999999987</v>
+      </c>
+      <c r="K72">
+        <v>0.11518709416164719</v>
+      </c>
+    </row>
+    <row r="73" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D73">
+        <v>39.959999999999987</v>
+      </c>
+      <c r="E73">
+        <v>45.391447630502796</v>
+      </c>
+      <c r="G73">
+        <v>50.320000000000164</v>
+      </c>
+      <c r="H73">
+        <v>0.31136732599903078</v>
+      </c>
+      <c r="J73">
+        <v>40.514999999999986</v>
+      </c>
+      <c r="K73">
+        <v>0.10957487056068341</v>
+      </c>
+    </row>
+    <row r="74" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D74">
+        <v>40.514999999999986</v>
+      </c>
+      <c r="E74">
+        <v>45.453806111055123</v>
+      </c>
+      <c r="G74">
+        <v>50.505000000000166</v>
+      </c>
+      <c r="H74">
+        <v>0.3087880383299853</v>
+      </c>
+      <c r="J74">
+        <v>41.069999999999986</v>
+      </c>
+      <c r="K74">
+        <v>0.10423608951833667</v>
+      </c>
+    </row>
+    <row r="75" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D75">
+        <v>41.069999999999986</v>
+      </c>
+      <c r="E75">
+        <v>45.513126319491789</v>
+      </c>
+      <c r="G75">
+        <v>50.690000000000168</v>
+      </c>
+      <c r="H75">
+        <v>0.30627218078896495</v>
+      </c>
+      <c r="J75">
+        <v>41.624999999999986</v>
+      </c>
+      <c r="K75">
+        <v>9.9157428181103596E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D76">
+        <v>41.624999999999986</v>
+      </c>
+      <c r="E76">
+        <v>45.569556288564172</v>
+      </c>
+      <c r="G76">
+        <v>50.875000000000171</v>
+      </c>
+      <c r="H76">
+        <v>0.30381785918950804</v>
+      </c>
+      <c r="J76">
+        <v>42.179999999999986</v>
+      </c>
+      <c r="K76">
+        <v>9.4326212820571048E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D77">
+        <v>42.179999999999986</v>
+      </c>
+      <c r="E77">
+        <v>45.623236838471726</v>
+      </c>
+      <c r="G77">
+        <v>51.060000000000173</v>
+      </c>
+      <c r="H77">
+        <v>0.30142324762276862</v>
+      </c>
+      <c r="J77">
+        <v>42.734999999999985</v>
+      </c>
+      <c r="K77">
+        <v>8.9730387206303552E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D78">
+        <v>42.734999999999985</v>
+      </c>
+      <c r="E78">
+        <v>45.674301928276769</v>
+      </c>
+      <c r="G78">
+        <v>51.245000000000175</v>
+      </c>
+      <c r="H78">
+        <v>0.29908658557596685</v>
+      </c>
+      <c r="J78">
+        <v>43.289999999999985</v>
+      </c>
+      <c r="K78">
+        <v>8.5358482519688889E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D79">
+        <v>43.289999999999985</v>
+      </c>
+      <c r="E79">
+        <v>45.722878990197479</v>
+      </c>
+      <c r="G79">
+        <v>51.430000000000177</v>
+      </c>
+      <c r="H79">
+        <v>0.29680617518900893</v>
+      </c>
+      <c r="J79">
+        <v>43.844999999999985</v>
+      </c>
+      <c r="K79">
+        <v>8.1199588733661274E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D80">
+        <v>43.844999999999985</v>
+      </c>
+      <c r="E80">
+        <v>45.769089247613216</v>
+      </c>
+      <c r="G80">
+        <v>51.61500000000018</v>
+      </c>
+      <c r="H80">
+        <v>0.29458037864184261</v>
+      </c>
+      <c r="J80">
+        <v>44.399999999999984</v>
+      </c>
+      <c r="K80">
+        <v>7.7243327386881513E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D81">
+        <v>44.399999999999984</v>
+      </c>
+      <c r="E81">
+        <v>45.81304801757576</v>
+      </c>
+      <c r="G81">
+        <v>51.800000000000182</v>
+      </c>
+      <c r="H81">
+        <v>0.29240761566567841</v>
+      </c>
+      <c r="J81">
+        <v>44.954999999999984</v>
+      </c>
+      <c r="K81">
+        <v>7.347982568443151E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D82">
+        <v>44.954999999999984</v>
+      </c>
+      <c r="E82">
+        <v>45.854864998581391</v>
+      </c>
+      <c r="G82">
+        <v>51.985000000000184</v>
+      </c>
+      <c r="H82">
+        <v>0.2902863611714871</v>
+      </c>
+      <c r="J82">
+        <v>45.509999999999984</v>
+      </c>
+      <c r="K82">
+        <v>6.9899691860392618E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D83">
+        <v>45.509999999999984</v>
+      </c>
+      <c r="E83">
+        <v>45.894644544322006</v>
+      </c>
+      <c r="G83">
+        <v>52.170000000000186</v>
+      </c>
+      <c r="H83">
+        <v>0.28821514298967793</v>
+      </c>
+      <c r="J83">
+        <v>46.064999999999984</v>
+      </c>
+      <c r="K83">
+        <v>6.6493991740824779E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D84">
+        <v>46.064999999999984</v>
+      </c>
+      <c r="E84">
+        <v>45.932485924098224</v>
+      </c>
+      <c r="G84">
+        <v>52.355000000000189</v>
+      </c>
+      <c r="H84">
+        <v>0.2861925397151171</v>
+      </c>
+      <c r="J84">
+        <v>46.619999999999983</v>
+      </c>
+      <c r="K84">
+        <v>6.3254226448660661E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D85">
+        <v>46.619999999999983</v>
+      </c>
+      <c r="E85">
+        <v>45.968483570544606</v>
+      </c>
+      <c r="G85">
+        <v>52.540000000000191</v>
+      </c>
+      <c r="H85">
+        <v>0.28421717865203067</v>
+      </c>
+      <c r="J85">
+        <v>47.174999999999983</v>
+      </c>
+      <c r="K85">
+        <v>6.0172311194876288E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D86">
+        <v>47.174999999999983</v>
+      </c>
+      <c r="E86">
+        <v>46.002727315284929</v>
+      </c>
+      <c r="G86">
+        <v>52.725000000000193</v>
+      </c>
+      <c r="H86">
+        <v>0.28228773385366146</v>
+      </c>
+      <c r="J86">
+        <v>47.729999999999983</v>
+      </c>
+      <c r="K86">
+        <v>5.7240555103013131E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D87">
+        <v>47.729999999999983</v>
+      </c>
+      <c r="E87">
+        <v>46.035302613105785</v>
+      </c>
+      <c r="G87">
+        <v>52.910000000000196</v>
+      </c>
+      <c r="H87">
+        <v>0.28040292425177404</v>
+      </c>
+      <c r="J87">
+        <v>48.284999999999982</v>
+      </c>
+      <c r="K87">
+        <v>5.4451642016703529E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D88">
+        <v>48.284999999999982</v>
+      </c>
+      <c r="E88">
+        <v>46.066290755207767</v>
+      </c>
+      <c r="G88">
+        <v>53.095000000000198</v>
+      </c>
+      <c r="H88">
+        <v>0.27856151187145239</v>
+      </c>
+      <c r="J88">
+        <v>48.839999999999982</v>
+      </c>
+      <c r="K88">
+        <v>5.1798612242304351E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D89">
+        <v>48.839999999999982</v>
+      </c>
+      <c r="E89">
+        <v>46.095769072066567</v>
+      </c>
+      <c r="G89">
+        <v>53.2800000000002</v>
+      </c>
+      <c r="H89">
+        <v>0.27676230012684622</v>
+      </c>
+      <c r="J89">
+        <v>49.394999999999982</v>
+      </c>
+      <c r="K89">
+        <v>4.9274845181078948E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D90">
+        <v>49.394999999999982</v>
+      </c>
+      <c r="E90">
+        <v>46.123811126410054</v>
+      </c>
+      <c r="G90">
+        <v>53.465000000000202</v>
+      </c>
+      <c r="H90">
+        <v>0.27500413219375797</v>
+      </c>
+      <c r="J90">
+        <v>49.949999999999982</v>
+      </c>
+      <c r="K90">
+        <v>4.6874042807585593E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D91">
+        <v>49.949999999999982</v>
+      </c>
+      <c r="E91">
+        <v>46.150486896793069</v>
+      </c>
+      <c r="G91">
+        <v>53.650000000000205</v>
+      </c>
+      <c r="H91">
+        <v>0.27328588945525351</v>
+      </c>
+      <c r="J91">
+        <v>50.504999999999981</v>
+      </c>
+      <c r="K91">
+        <v>4.459021395304269E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D92">
+        <v>50.504999999999981</v>
+      </c>
+      <c r="E92">
+        <v>46.175862952227924</v>
+      </c>
+      <c r="G92">
+        <v>53.835000000000207</v>
+      </c>
+      <c r="H92">
+        <v>0.27160649001658943</v>
+      </c>
+      <c r="J92">
+        <v>51.059999999999981</v>
+      </c>
+      <c r="K92">
+        <v>4.2417659354451111E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D93">
+        <v>51.059999999999981</v>
+      </c>
+      <c r="E93">
+        <v>46.200002618306428</v>
+      </c>
+      <c r="G93">
+        <v>54.020000000000209</v>
+      </c>
+      <c r="H93">
+        <v>0.2699648872860374</v>
+      </c>
+      <c r="J93">
+        <v>51.614999999999981</v>
+      </c>
+      <c r="K93">
+        <v>4.0350957432162722E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D94">
+        <v>51.614999999999981</v>
+      </c>
+      <c r="E94">
+        <v>46.22296613522802</v>
+      </c>
+      <c r="G94">
+        <v>54.205000000000211</v>
+      </c>
+      <c r="H94">
+        <v>0.26836006861835621</v>
+      </c>
+      <c r="J94">
+        <v>52.16999999999998</v>
+      </c>
+      <c r="K94">
+        <v>3.8384950760404241E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D95">
+        <v>52.16999999999998</v>
+      </c>
+      <c r="E95">
+        <v>46.244810808128356</v>
+      </c>
+      <c r="G95">
+        <v>54.390000000000214</v>
+      </c>
+      <c r="H95">
+        <v>0.2667910540177964</v>
+      </c>
+      <c r="J95">
+        <v>52.72499999999998</v>
+      </c>
+      <c r="K95">
+        <v>3.6514733196993401E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D96">
+        <v>52.72499999999998</v>
+      </c>
+      <c r="E96">
+        <v>46.265591150083466</v>
+      </c>
+      <c r="G96">
+        <v>54.575000000000216</v>
+      </c>
+      <c r="H96">
+        <v>0.26525689489772936</v>
+      </c>
+      <c r="J96">
+        <v>53.27999999999998</v>
+      </c>
+      <c r="K96">
+        <v>3.4735637640129415E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D97">
+        <v>53.27999999999998</v>
+      </c>
+      <c r="E97">
+        <v>46.28535901814638</v>
+      </c>
+      <c r="G97">
+        <v>54.760000000000218</v>
+      </c>
+      <c r="H97">
+        <v>0.2637566728941716</v>
+      </c>
+      <c r="J97">
+        <v>53.83499999999998</v>
+      </c>
+      <c r="K97">
+        <v>3.3043224381705795E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D98">
+        <v>53.83499999999998</v>
+      </c>
+      <c r="E98">
+        <v>46.304163742755676</v>
+      </c>
+      <c r="G98">
+        <v>54.945000000000221</v>
+      </c>
+      <c r="H98">
+        <v>0.26228949873053936</v>
+      </c>
+      <c r="J98">
+        <v>54.389999999999979</v>
+      </c>
+      <c r="K98">
+        <v>3.1433270028080863E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D99">
+        <v>54.389999999999979</v>
+      </c>
+      <c r="E99">
+        <v>46.322052250838894</v>
+      </c>
+      <c r="G99">
+        <v>55.130000000000223</v>
+      </c>
+      <c r="H99">
+        <v>0.26085451113119745</v>
+      </c>
+      <c r="J99">
+        <v>54.944999999999979</v>
+      </c>
+      <c r="K99">
+        <v>2.9901756960657735E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D100">
+        <v>54.944999999999979</v>
+      </c>
+      <c r="E100">
+        <v>46.339069182918031</v>
+      </c>
+      <c r="G100">
+        <v>55.315000000000225</v>
+      </c>
+      <c r="H100">
+        <v>0.2594508757814612</v>
+      </c>
+      <c r="J100">
+        <v>55.499999999999979</v>
+      </c>
+      <c r="K100">
+        <v>2.8444863309973357E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D101">
+        <v>55.499999999999979</v>
+      </c>
+      <c r="E101">
+        <v>46.355257004509355</v>
+      </c>
+      <c r="G101">
+        <v>55.500000000000227</v>
+      </c>
+      <c r="H101">
+        <v>0.25807778433180784</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>12.339753086419753</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>46.671313274117722</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>8.9999364180372951E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2.7103129625061229E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>5.0812059858120166E-8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>-53.339951821622698</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>110.6799036432454</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>113.90173946853385</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>46.671313274117722</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>1.6713132741177219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.18800000790247975</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>7.0348554396468739</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.82220828570648663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>4.1519660856940632</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>17.107652132354985</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <f>((300000/20)*2)/125</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <f>E2*2</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f>(300000/20)/125</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="1">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1">
+        <v>29</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1">
+        <v>35</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1">
+        <v>36</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1">
+        <v>37</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7.9750692520775628</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>46.106453624578407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>9.6546444913484866E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>3.1055085401021643E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>8.1805482128200725E-8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>-37.962104803535922</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>79.924209607071845</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>81.704953122864168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>46.106453624578407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>8.1064536245784069</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>3.0158651795256767E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>1.489831291821291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.4737303483332741</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.92494978946018591</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>3.4541733028994486</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>13</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>14</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>16</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>17</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>18</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12452,7 +18404,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -12651,7 +18603,7 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1">
@@ -14728,7 +20680,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -14927,7 +20879,7 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1">
@@ -17004,7 +22956,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -17199,11 +23151,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1">
@@ -19336,196 +25288,12 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>7.9750692520775628</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>46.106453624578407</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>9.6546444913484866E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>3.1055085401021643E-6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>8.1805482128200725E-8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>-37.962104803535922</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>79.924209607071845</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>81.704953122864168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>46.106453624578407</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>8.1064536245784069</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>3.0158651795256767E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>1.489831291821291</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>0.4737303483332741</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>0.92494978946018591</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>3.4541733028994486</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19533,185 +25301,197 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="F1">
-        <v>1</v>
-      </c>
-      <c r="G1">
+      <c r="B3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>12.34570103628565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>46.671322010320225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>8.9999303322749191E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2.7435035292455723E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>5.1434305693311135E-8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>-53.339951830868337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>110.67990366173667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>113.90173948702513</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>13</v>
-      </c>
-      <c r="F7">
-        <v>7</v>
-      </c>
-      <c r="G7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F9">
-        <v>9</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F10">
-        <v>10</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F11">
-        <v>11</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F12">
-        <v>12</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F13">
-        <v>13</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F14">
-        <v>14</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F15">
-        <v>15</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F16">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F17">
+      <c r="B18">
+        <v>46.671322010320225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F18">
+      <c r="B19">
+        <v>1.6713220103202246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="G18">
-        <v>0</v>
+      <c r="B20">
+        <v>0.1879983655035144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>7.0348519355430872</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.82220820052967858</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>4.1519699768215332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>17.107734736331672</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>